--- a/data/trans_orig/P19C11_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P19C11_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3285D797-0866-48B8-BD72-5E2129D4E3A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D6E3FCD3-AA63-4C86-9FE2-4DADA47306F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DBA427FE-7310-4268-A4DE-2F1A009EBA75}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F1260E05-F2AC-407B-AF56-B4678D7C74EE}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="86">
   <si>
     <t>Población según si el motivo por su última visita al dentista fue por implantes / solo 2023 en 2023 (Tasa respuesta: 96,88%)</t>
   </si>
@@ -74,28 +74,25 @@
     <t>4,18%</t>
   </si>
   <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
   </si>
   <si>
     <t>3,8%</t>
   </si>
   <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
   </si>
   <si>
     <t>3,95%</t>
   </si>
   <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
+    <t>3,18%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +101,25 @@
     <t>95,82%</t>
   </si>
   <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
   </si>
   <si>
     <t>96,2%</t>
   </si>
   <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
   </si>
   <si>
     <t>96,05%</t>
   </si>
   <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
+    <t>96,82%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,49 +131,55 @@
     <t>4,06%</t>
   </si>
   <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
   </si>
   <si>
     <t>3,71%</t>
   </si>
   <si>
-    <t>2,97%</t>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
   </si>
   <si>
     <t>4,48%</t>
   </si>
   <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
     <t>95,94%</t>
   </si>
   <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
   </si>
   <si>
     <t>96,29%</t>
   </si>
   <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
     <t>95,52%</t>
   </si>
   <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
+    <t>96,67%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -188,58 +188,64 @@
     <t>6,24%</t>
   </si>
   <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
   </si>
   <si>
     <t>5,17%</t>
   </si>
   <si>
-    <t>6,78%</t>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
   </si>
   <si>
     <t>5,69%</t>
   </si>
   <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
   </si>
   <si>
     <t>93,76%</t>
   </si>
   <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
+    <t>91,76%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
   </si>
   <si>
     <t>94,83%</t>
   </si>
   <si>
-    <t>93,22%</t>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
   </si>
   <si>
     <t>94,31%</t>
   </si>
   <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
   </si>
   <si>
     <t>4,52%</t>
   </si>
   <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
   </si>
   <si>
     <t>4,01%</t>
@@ -248,31 +254,31 @@
     <t>3,49%</t>
   </si>
   <si>
-    <t>4,64%</t>
+    <t>4,55%</t>
   </si>
   <si>
     <t>4,25%</t>
   </si>
   <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
   </si>
   <si>
     <t>95,48%</t>
   </si>
   <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
   </si>
   <si>
     <t>95,99%</t>
   </si>
   <si>
-    <t>95,36%</t>
+    <t>95,45%</t>
   </si>
   <si>
     <t>96,51%</t>
@@ -281,10 +287,10 @@
     <t>95,75%</t>
   </si>
   <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -699,7 +705,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AD21FE3-2D3A-4D00-BA9E-5E26BD65877B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9DACBCB-9361-41CE-9A98-76DA4014A17B}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -859,13 +865,13 @@
         <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>619</v>
@@ -874,13 +880,13 @@
         <v>489320</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="H5" s="7">
         <v>1317</v>
@@ -889,13 +895,13 @@
         <v>768385</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="M5" s="7">
         <v>1936</v>
@@ -904,13 +910,13 @@
         <v>1257705</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -925,13 +931,13 @@
         <v>510683</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
         <v>1370</v>
@@ -940,13 +946,13 @@
         <v>798724</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
         <v>2018</v>
@@ -955,18 +961,18 @@
         <v>1309407</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -978,13 +984,13 @@
         <v>85064</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="H7" s="7">
         <v>138</v>
@@ -993,13 +999,13 @@
         <v>81919</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>233</v>
@@ -1008,19 +1014,19 @@
         <v>166983</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
         <v>1828</v>
@@ -1029,13 +1035,13 @@
         <v>2011556</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="H8" s="7">
         <v>2711</v>
@@ -1044,13 +1050,13 @@
         <v>2124235</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="M8" s="7">
         <v>4539</v>
@@ -1059,10 +1065,10 @@
         <v>4135792</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>47</v>
@@ -1080,13 +1086,13 @@
         <v>2096620</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
         <v>2849</v>
@@ -1095,13 +1101,13 @@
         <v>2206154</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
         <v>4772</v>
@@ -1110,13 +1116,13 @@
         <v>4302775</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1151,10 +1157,10 @@
         <v>52</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M10" s="7">
         <v>108</v>
@@ -1163,19 +1169,19 @@
         <v>77631</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
         <v>622</v>
@@ -1184,13 +1190,13 @@
         <v>620039</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H11" s="7">
         <v>928</v>
@@ -1199,13 +1205,13 @@
         <v>667693</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="M11" s="7">
         <v>1550</v>
@@ -1214,13 +1220,13 @@
         <v>1287731</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1235,13 +1241,13 @@
         <v>661301</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
         <v>988</v>
@@ -1250,13 +1256,13 @@
         <v>704061</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
         <v>1658</v>
@@ -1265,13 +1271,13 @@
         <v>1365362</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1288,13 +1294,13 @@
         <v>147690</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H13" s="7">
         <v>251</v>
@@ -1303,13 +1309,13 @@
         <v>148625</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M13" s="7">
         <v>423</v>
@@ -1318,19 +1324,19 @@
         <v>296315</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
         <v>3069</v>
@@ -1339,13 +1345,13 @@
         <v>3120914</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H14" s="7">
         <v>4956</v>
@@ -1354,13 +1360,13 @@
         <v>3560315</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="M14" s="7">
         <v>8025</v>
@@ -1369,13 +1375,13 @@
         <v>6681229</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1390,13 +1396,13 @@
         <v>3268604</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
         <v>5207</v>
@@ -1405,13 +1411,13 @@
         <v>3708940</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
         <v>8448</v>
@@ -1420,18 +1426,18 @@
         <v>6977544</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P19C11_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P19C11_2023-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D6E3FCD3-AA63-4C86-9FE2-4DADA47306F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F634DBC1-8716-42B5-8EA0-7E58423330BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F1260E05-F2AC-407B-AF56-B4678D7C74EE}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EB129B50-BFA9-4809-B165-C245203268A9}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -705,7 +705,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9DACBCB-9361-41CE-9A98-76DA4014A17B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21489B99-15A1-4BAD-A7C9-C3C989633E13}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P19C11_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P19C11_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F634DBC1-8716-42B5-8EA0-7E58423330BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4065C9B1-3BAD-4467-AB50-20BDE8A5A955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EB129B50-BFA9-4809-B165-C245203268A9}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1909CE75-3EF4-43F6-ACFD-F3BA4B376987}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="84">
   <si>
     <t>Población según si el motivo por su última visita al dentista fue por implantes / solo 2023 en 2023 (Tasa respuesta: 96,88%)</t>
   </si>
@@ -74,25 +74,28 @@
     <t>4,18%</t>
   </si>
   <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
   </si>
   <si>
     <t>3,8%</t>
   </si>
   <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
   </si>
   <si>
     <t>3,95%</t>
   </si>
   <si>
-    <t>3,18%</t>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
   </si>
   <si>
     <t>No</t>
@@ -101,25 +104,28 @@
     <t>95,82%</t>
   </si>
   <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
   </si>
   <si>
     <t>96,2%</t>
   </si>
   <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
   </si>
   <si>
     <t>96,05%</t>
   </si>
   <si>
-    <t>96,82%</t>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
   </si>
   <si>
     <t>100%</t>
@@ -131,55 +137,49 @@
     <t>4,06%</t>
   </si>
   <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
   </si>
   <si>
     <t>3,71%</t>
   </si>
   <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
   </si>
   <si>
     <t>3,88%</t>
   </si>
   <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
+    <t>3,32%</t>
   </si>
   <si>
     <t>95,94%</t>
   </si>
   <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
   </si>
   <si>
     <t>96,29%</t>
   </si>
   <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
   </si>
   <si>
     <t>96,12%</t>
   </si>
   <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
+    <t>96,68%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -188,64 +188,58 @@
     <t>6,24%</t>
   </si>
   <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
   </si>
   <si>
     <t>5,17%</t>
   </si>
   <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
+    <t>6,78%</t>
   </si>
   <si>
     <t>5,69%</t>
   </si>
   <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
   </si>
   <si>
     <t>93,76%</t>
   </si>
   <si>
-    <t>91,76%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
+    <t>91,59%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
   </si>
   <si>
     <t>94,83%</t>
   </si>
   <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
+    <t>93,22%</t>
   </si>
   <si>
     <t>94,31%</t>
   </si>
   <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
   </si>
   <si>
     <t>4,52%</t>
   </si>
   <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
   </si>
   <si>
     <t>4,01%</t>
@@ -254,31 +248,31 @@
     <t>3,49%</t>
   </si>
   <si>
-    <t>4,55%</t>
+    <t>4,64%</t>
   </si>
   <si>
     <t>4,25%</t>
   </si>
   <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
   </si>
   <si>
     <t>95,48%</t>
   </si>
   <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
   </si>
   <si>
     <t>95,99%</t>
   </si>
   <si>
-    <t>95,45%</t>
+    <t>95,36%</t>
   </si>
   <si>
     <t>96,51%</t>
@@ -287,10 +281,10 @@
     <t>95,75%</t>
   </si>
   <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -705,7 +699,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21489B99-15A1-4BAD-A7C9-C3C989633E13}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D456B63-4F95-4D28-A675-82957621C4D1}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -865,13 +859,13 @@
         <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>619</v>
@@ -880,13 +874,13 @@
         <v>489320</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
         <v>1317</v>
@@ -895,13 +889,13 @@
         <v>768385</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
         <v>1936</v>
@@ -910,13 +904,13 @@
         <v>1257705</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -931,13 +925,13 @@
         <v>510683</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
         <v>1370</v>
@@ -946,13 +940,13 @@
         <v>798724</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
         <v>2018</v>
@@ -961,18 +955,18 @@
         <v>1309407</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -984,13 +978,13 @@
         <v>85064</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
         <v>138</v>
@@ -999,13 +993,13 @@
         <v>81919</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>233</v>
@@ -1014,19 +1008,19 @@
         <v>166983</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
         <v>1828</v>
@@ -1035,13 +1029,13 @@
         <v>2011556</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H8" s="7">
         <v>2711</v>
@@ -1050,13 +1044,13 @@
         <v>2124235</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M8" s="7">
         <v>4539</v>
@@ -1065,10 +1059,10 @@
         <v>4135792</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>47</v>
@@ -1086,13 +1080,13 @@
         <v>2096620</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
         <v>2849</v>
@@ -1101,13 +1095,13 @@
         <v>2206154</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
         <v>4772</v>
@@ -1116,13 +1110,13 @@
         <v>4302775</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1157,10 +1151,10 @@
         <v>52</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="M10" s="7">
         <v>108</v>
@@ -1169,19 +1163,19 @@
         <v>77631</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
         <v>622</v>
@@ -1190,13 +1184,13 @@
         <v>620039</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="H11" s="7">
         <v>928</v>
@@ -1205,13 +1199,13 @@
         <v>667693</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="K11" s="7" t="s">
-        <v>62</v>
-      </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="M11" s="7">
         <v>1550</v>
@@ -1220,13 +1214,13 @@
         <v>1287731</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1241,13 +1235,13 @@
         <v>661301</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
         <v>988</v>
@@ -1256,13 +1250,13 @@
         <v>704061</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
         <v>1658</v>
@@ -1271,13 +1265,13 @@
         <v>1365362</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1294,13 +1288,13 @@
         <v>147690</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="H13" s="7">
         <v>251</v>
@@ -1309,13 +1303,13 @@
         <v>148625</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="M13" s="7">
         <v>423</v>
@@ -1324,19 +1318,19 @@
         <v>296315</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
         <v>3069</v>
@@ -1345,13 +1339,13 @@
         <v>3120914</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="H14" s="7">
         <v>4956</v>
@@ -1360,13 +1354,13 @@
         <v>3560315</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="M14" s="7">
         <v>8025</v>
@@ -1375,13 +1369,13 @@
         <v>6681229</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1396,13 +1390,13 @@
         <v>3268604</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
         <v>5207</v>
@@ -1411,13 +1405,13 @@
         <v>3708940</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
         <v>8448</v>
@@ -1426,18 +1420,18 @@
         <v>6977544</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P19C11_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P19C11_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4065C9B1-3BAD-4467-AB50-20BDE8A5A955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F99758DB-267E-4EB2-8F5D-958BBA7FB8B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1909CE75-3EF4-43F6-ACFD-F3BA4B376987}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{D976B9A4-1CB4-4934-AAFD-FFEB9D219E02}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -71,220 +71,220 @@
     <t>Sí</t>
   </si>
   <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
     <t>4,18%</t>
   </si>
   <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>No</t>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
   </si>
   <si>
     <t>95,82%</t>
   </si>
   <si>
-    <t>94,14%</t>
-  </si>
-  <si>
     <t>97,22%</t>
   </si>
   <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
     <t>Universitarios</t>
   </si>
   <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>91,69%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -699,7 +699,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D456B63-4F95-4D28-A675-82957621C4D1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A6709F3-6CAE-438F-A11B-941FC489C675}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -820,7 +820,7 @@
         <v>29</v>
       </c>
       <c r="D4" s="7">
-        <v>21363</v>
+        <v>20504</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -835,7 +835,7 @@
         <v>53</v>
       </c>
       <c r="I4" s="7">
-        <v>30339</v>
+        <v>28265</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -850,7 +850,7 @@
         <v>82</v>
       </c>
       <c r="N4" s="7">
-        <v>51702</v>
+        <v>48769</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -871,7 +871,7 @@
         <v>619</v>
       </c>
       <c r="D5" s="7">
-        <v>489320</v>
+        <v>463937</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -886,7 +886,7 @@
         <v>1317</v>
       </c>
       <c r="I5" s="7">
-        <v>768385</v>
+        <v>693351</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -901,7 +901,7 @@
         <v>1936</v>
       </c>
       <c r="N5" s="7">
-        <v>1257705</v>
+        <v>1157288</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -922,7 +922,7 @@
         <v>648</v>
       </c>
       <c r="D6" s="7">
-        <v>510683</v>
+        <v>484441</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -937,7 +937,7 @@
         <v>1370</v>
       </c>
       <c r="I6" s="7">
-        <v>798724</v>
+        <v>721616</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -952,7 +952,7 @@
         <v>2018</v>
       </c>
       <c r="N6" s="7">
-        <v>1309407</v>
+        <v>1206057</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -975,7 +975,7 @@
         <v>95</v>
       </c>
       <c r="D7" s="7">
-        <v>85064</v>
+        <v>81163</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -990,7 +990,7 @@
         <v>138</v>
       </c>
       <c r="I7" s="7">
-        <v>81919</v>
+        <v>76000</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1005,7 +1005,7 @@
         <v>233</v>
       </c>
       <c r="N7" s="7">
-        <v>166983</v>
+        <v>157163</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1014,7 +1014,7 @@
         <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1026,46 +1026,46 @@
         <v>1828</v>
       </c>
       <c r="D8" s="7">
-        <v>2011556</v>
+        <v>2149374</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>2711</v>
       </c>
       <c r="I8" s="7">
-        <v>2124235</v>
+        <v>2121906</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>4539</v>
       </c>
       <c r="N8" s="7">
-        <v>4135792</v>
+        <v>4271279</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1077,7 +1077,7 @@
         <v>1923</v>
       </c>
       <c r="D9" s="7">
-        <v>2096620</v>
+        <v>2230537</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1092,7 +1092,7 @@
         <v>2849</v>
       </c>
       <c r="I9" s="7">
-        <v>2206154</v>
+        <v>2197906</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1107,7 +1107,7 @@
         <v>4772</v>
       </c>
       <c r="N9" s="7">
-        <v>4302775</v>
+        <v>4428442</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1121,7 +1121,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1130,46 +1130,46 @@
         <v>48</v>
       </c>
       <c r="D10" s="7">
-        <v>41262</v>
+        <v>39008</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>60</v>
       </c>
       <c r="I10" s="7">
-        <v>36368</v>
+        <v>33467</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M10" s="7">
         <v>108</v>
       </c>
       <c r="N10" s="7">
-        <v>77631</v>
+        <v>72474</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1181,46 +1181,46 @@
         <v>622</v>
       </c>
       <c r="D11" s="7">
-        <v>620039</v>
+        <v>592308</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H11" s="7">
         <v>928</v>
       </c>
       <c r="I11" s="7">
-        <v>667693</v>
+        <v>618144</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="M11" s="7">
         <v>1550</v>
       </c>
       <c r="N11" s="7">
-        <v>1287731</v>
+        <v>1210453</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1232,7 +1232,7 @@
         <v>670</v>
       </c>
       <c r="D12" s="7">
-        <v>661301</v>
+        <v>631316</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1247,7 +1247,7 @@
         <v>988</v>
       </c>
       <c r="I12" s="7">
-        <v>704061</v>
+        <v>651611</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1262,7 +1262,7 @@
         <v>1658</v>
       </c>
       <c r="N12" s="7">
-        <v>1365362</v>
+        <v>1282927</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1285,46 +1285,46 @@
         <v>172</v>
       </c>
       <c r="D13" s="7">
-        <v>147690</v>
+        <v>140674</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="H13" s="7">
         <v>251</v>
       </c>
       <c r="I13" s="7">
-        <v>148625</v>
+        <v>137732</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M13" s="7">
         <v>423</v>
       </c>
       <c r="N13" s="7">
-        <v>296315</v>
+        <v>278406</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1336,13 +1336,13 @@
         <v>3069</v>
       </c>
       <c r="D14" s="7">
-        <v>3120914</v>
+        <v>3205619</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>76</v>
@@ -1351,7 +1351,7 @@
         <v>4956</v>
       </c>
       <c r="I14" s="7">
-        <v>3560315</v>
+        <v>3433401</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>77</v>
@@ -1366,7 +1366,7 @@
         <v>8025</v>
       </c>
       <c r="N14" s="7">
-        <v>6681229</v>
+        <v>6639020</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>80</v>
@@ -1387,7 +1387,7 @@
         <v>3241</v>
       </c>
       <c r="D15" s="7">
-        <v>3268604</v>
+        <v>3346293</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1402,7 +1402,7 @@
         <v>5207</v>
       </c>
       <c r="I15" s="7">
-        <v>3708940</v>
+        <v>3571133</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1417,7 +1417,7 @@
         <v>8448</v>
       </c>
       <c r="N15" s="7">
-        <v>6977544</v>
+        <v>6917426</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
